--- a/Commsights.MVC/wwwroot/Download/Excel/Google.xlsx
+++ b/Commsights.MVC/wwwroot/Download/Excel/Google.xlsx
@@ -34,10 +34,10 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
     <t>Content</t>
+  </si>
+  <si>
+    <t>Headline  (Eng)</t>
   </si>
 </sst>
 </file>
@@ -421,13 +421,13 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="65.140625" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="5" width="65.140625" customWidth="1"/>
     <col min="6" max="6" width="119.140625" customWidth="1"/>
     <col min="7" max="8" width="20.7109375" customWidth="1"/>
   </cols>
@@ -440,19 +440,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>

--- a/Commsights.MVC/wwwroot/Download/Excel/Google.xlsx
+++ b/Commsights.MVC/wwwroot/Download/Excel/Google.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Commsights\Commsights.MVC\wwwroot\Download\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Sentiment</t>
   </si>
@@ -38,13 +43,19 @@
   </si>
   <si>
     <t>Headline  (Eng)</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +141,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -176,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,9 +227,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,6 +262,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,22 +438,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="5" width="65.140625" customWidth="1"/>
     <col min="6" max="6" width="119.140625" customWidth="1"/>
-    <col min="7" max="8" width="20.7109375" customWidth="1"/>
+    <col min="7" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -456,6 +477,12 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
